--- a/DataSheet/CPC_1stTouchPoint_Approval2.xlsx
+++ b/DataSheet/CPC_1stTouchPoint_Approval2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A043D6-0E9C-4AAB-B0E6-CE2EB361138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D61908-542E-4706-BC92-D05A71813619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -961,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
   <dimension ref="A1:O294"/>
   <sheetViews>
-    <sheetView topLeftCell="C216" zoomScale="77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C102" zoomScale="77" workbookViewId="0">
       <selection activeCell="H261" sqref="H261"/>
     </sheetView>
   </sheetViews>
@@ -9267,7 +9267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
